--- a/data/Quilleco.xlsx
+++ b/data/Quilleco.xlsx
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica de Caliboro</t>
+          <t>Central Hidroeléctrica de Melo</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4810</v>
+        <v>8475</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -932,12 +932,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8337340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8337291&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica de Melo</t>
+          <t>Central Hidroeléctrica de Caliboro</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8475</v>
+        <v>4810</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -980,12 +980,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8337291&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8337340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">

--- a/data/Quilleco.xlsx
+++ b/data/Quilleco.xlsx
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica de Melo</t>
+          <t>Central Hidroeléctrica de Caliboro</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8475</v>
+        <v>4810</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -932,12 +932,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8337291&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8337340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica de Caliboro</t>
+          <t>Central Hidroeléctrica de Melo</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4810</v>
+        <v>8475</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -980,12 +980,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8337340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8337291&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">

--- a/data/Quilleco.xlsx
+++ b/data/Quilleco.xlsx
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica de Caliboro</t>
+          <t>Central Hidroeléctrica de Melo</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4810</v>
+        <v>8475</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -932,12 +932,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8337340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8337291&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica de Melo</t>
+          <t>Central Hidroeléctrica de Caliboro</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8475</v>
+        <v>4810</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -980,12 +980,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8337291&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8337340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2695,7 +2695,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F49" t="n">

--- a/data/Quilleco.xlsx
+++ b/data/Quilleco.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,40 +424,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Eólico Peñasco Ventoso</t>
+          <t>PSF Leona del Agua II</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Quilleco SpA</t>
+          <t>Per Orolonco SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>325000</v>
+        <v>17000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>27/04/2021</t>
+          <t>18/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151479402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158426130&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -482,7 +482,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>25/03/2021</t>
+          <t>27/04/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151272544&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151479402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,30 +520,30 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Parque Eólico Peñasco Ventoso</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>Quilleco SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9903</v>
+        <v>325000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>25/03/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151272544&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE LA ZONA EXTRACTIVA, SECTOR PEDREGAL II</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,30 +578,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sociedad Áridos y Asfaltos Servitierra Ltda.</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7100</v>
+        <v>9903</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>05/05/2017</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132331933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas, comuna de Quilleco</t>
+          <t>AMPLIACIÓN DE LA ZONA EXTRACTIVA, SECTOR PEDREGAL II</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Quilleco</t>
+          <t>Sociedad Áridos y Asfaltos Servitierra Ltda.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>665</v>
+        <v>7100</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/06/2016</t>
+          <t>05/05/2017</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131510657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132331933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas, Comuna de Quilleco</t>
+          <t>Planta de Tratamiento de Aguas Servidas, comuna de Quilleco</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23/05/2016</t>
+          <t>22/06/2016</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131405570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131510657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,12 +712,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Minicentrales Hidroeléctricas de pasada Aillín y Las Juntas</t>
+          <t>Planta de Tratamiento de Aguas Servidas, Comuna de Quilleco</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Las Juntas S.A.</t>
+          <t>Ilustre Municipalidad de Quilleco</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>43000</v>
+        <v>665</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>02/07/2015</t>
+          <t>23/05/2016</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130573988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131405570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,12 +760,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Caliboro (Reingreso)</t>
+          <t>Minicentrales Hidroeléctricas de pasada Aillín y Las Juntas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Asociación de Canalistas del Laja</t>
+          <t>Hidroeléctrica Las Juntas S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4810</v>
+        <v>43000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>16/08/2013</t>
+          <t>02/07/2015</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128446273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130573988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>"Ensilaje de la mortalidad y Tratamiento de RILES en la piscicultura Pichicoreo, Sector Villa Alegre, Comuna de Quilleco, Sociedad Piscicultura Pichicoreo Ltda."</t>
+          <t>Central Hidroeléctrica Caliboro (Reingreso)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sociedad Piscicultura Pichi Coreo Limitada</t>
+          <t>Asociación de Canalistas del Laja</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>93</v>
+        <v>4810</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>24/07/2013</t>
+          <t>16/08/2013</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8374682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128446273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica de Caliboro</t>
+          <t>"Ensilaje de la mortalidad y Tratamiento de RILES en la piscicultura Pichicoreo, Sector Villa Alegre, Comuna de Quilleco, Sociedad Piscicultura Pichicoreo Ltda."</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Asociación de Canalistas del Laja</t>
+          <t>Sociedad Piscicultura Pichi Coreo Limitada</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4810</v>
+        <v>93</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>24/07/2013</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8368311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8374682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica de Melo</t>
+          <t>Central Hidroeléctrica de Caliboro</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -923,21 +923,21 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8475</v>
+        <v>4810</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>15/07/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8337291&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8368311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica de Caliboro</t>
+          <t>Central Hidroeléctrica de Melo</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4810</v>
+        <v>8475</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -980,12 +980,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8337340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8337291&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>"Ensilaje de la Mortalidad y Tratamiento de RILES en la Piscicultura Pichicoreo, Sociedad Piscicultura Pichicoreo Ltda."</t>
+          <t>Central Hidroeléctrica de Caliboro</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sociedad Piscicultura Pichi Coreo Limitada</t>
+          <t>Asociación de Canalistas del Laja</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>93</v>
+        <v>4810</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>01/03/2013</t>
+          <t>15/07/2013</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7926285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8337340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>"Ensilaje de la mortalidad y Tratamiento de RILES en la piscicultura Pichicoreo, Sector Villa Alegre, Comuna de Quilleco, Sociedad Piscicultura Pichicoreo Ltda."</t>
+          <t>"Ensilaje de la Mortalidad y Tratamiento de RILES en la Piscicultura Pichicoreo, Sociedad Piscicultura Pichicoreo Ltda."</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>15/01/2013</t>
+          <t>01/03/2013</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7766953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7926285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>"Ensilaje de la mortalidad y tratamiento de RILES En la piscicultura Pichicoreo, Sector Villa Alegre, Comuna de Quilleco, Sociedad Piscicultura Pichicoreo Ltda."</t>
+          <t>"Ensilaje de la mortalidad y Tratamiento de RILES en la piscicultura Pichicoreo, Sector Villa Alegre, Comuna de Quilleco, Sociedad Piscicultura Pichicoreo Ltda."</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SUR INVERSIONES S.A.</t>
+          <t>Sociedad Piscicultura Pichi Coreo Limitada</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>19/10/2012</t>
+          <t>15/01/2013</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7438037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7766953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ensilaje de la Mortalidad y Tratamiento de RILES en la Piscicultura Pichicoreo, Sector Villa Alegre, Comuna de Quilleco, Sociedad Piscicultura Pichicoreo Ltda.</t>
+          <t>"Ensilaje de la mortalidad y tratamiento de RILES En la piscicultura Pichicoreo, Sector Villa Alegre, Comuna de Quilleco, Sociedad Piscicultura Pichicoreo Ltda."</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>25/09/2012</t>
+          <t>19/10/2012</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7359988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7438037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Ensilaje de la Mortalidad y Tratamiento de RILES en la Piscicultura Pichicoreo, Sector Villa Alegre, Comuna de Quilleco, Sociedad Piscicultura Pichicoreo Ltda.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,20 +1202,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SUR INVERSIONES S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>25/09/2012</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7359988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Piscicultura Travesía (reingreso)</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,20 +1298,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sociedad de Acuicultura Travesía Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>850</v>
+        <v>100</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>17/08/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5926629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Centro de Precria, Parto, Postparto y Ternerera fundo Curiche, Agrícola Ancali Ltda.</t>
+          <t>Piscicultura Travesía (reingreso)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Agricola Ancali Limitada</t>
+          <t>Sociedad de Acuicultura Travesía Ltda.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5382</v>
+        <v>850</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>22/06/2010</t>
+          <t>17/08/2011</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4692515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5926629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Mini Central Hidroeléctrica Melo</t>
+          <t>Centro de Precria, Parto, Postparto y Ternerera fundo Curiche, Agrícola Ancali Ltda.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>HYDROVENTURA CHILE SpA</t>
+          <t>Agricola Ancali Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>7000</v>
+        <v>5382</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>15/06/2010</t>
+          <t>22/06/2010</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4671808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4692515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Mini Central Hidroeléctrica Melo</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>HYDROVENTURA CHILE SpA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>15/06/2010</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4671808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Centro de Precria, Parto, Postparto y Ternerera fundo Curiche, Agrícola Ancali Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Agricola Ancali Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4165</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>06/11/2009</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4171456&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Plan de Cierre Vertedero Comuna de Quilleco (e-seia)</t>
+          <t>Centro de Precria, Parto, Postparto y Ternerera fundo Curiche, Agrícola Ancali Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Quilleco</t>
+          <t>Agricola Ancali Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>333</v>
+        <v>4165</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>06/10/2009</t>
+          <t>06/11/2009</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4093371&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4171456&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Plan de Cierre Vertedero Comuna de Quilleco (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Ilustre Municipalidad de Quilleco</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>22</v>
+        <v>333</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/10/2009</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4093371&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Piscicultura Travesia (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sociedad de Acuicultura Travesía Ltda.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>600</v>
+        <v>22</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>03/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3536789&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Piscicultura Travesia (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sociedad de Acuicultura Travesía Ltda.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/02/2009</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3536789&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>234</v>
+        <v>300</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ampliacion Extraccion Mecanizada de Aridos El Pedregal (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,20 +2210,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Sociedad Áridos y Asfaltos Servitierra Ltda.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>09/05/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=677683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Uso benéfico de lodos provenientes de Plantas de Tratamiento de Aguas Servidas de Essbío S.A.</t>
+          <t>Ampliacion Extraccion Mecanizada de Aridos El Pedregal (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,20 +2258,20 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>Sociedad Áridos y Asfaltos Servitierra Ltda.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>05/04/2002</t>
+          <t>09/05/2005</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=677683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Piscicultura Pichicoreo Ltda.</t>
+          <t>Uso benéfico de lodos provenientes de Plantas de Tratamiento de Aguas Servidas de Essbío S.A.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,20 +2306,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Piscicultura Pichicoreo Ltda.</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>14/02/2002</t>
+          <t>05/04/2002</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,30 +2344,30 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica El Piulo S/E Charrúa</t>
+          <t>Piscicultura Pichicoreo Ltda.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Piscicultura Pichicoreo Ltda.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>26700</v>
+        <v>300</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>23/03/2001</t>
+          <t>14/02/2002</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3741&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,30 +2392,30 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Loteo con Cambio de Uso de Suelo de los Predios Adyacentes Lote A y Lote B Santa Filomena</t>
+          <t>Línea de Transmisión Eléctrica El Piulo S/E Charrúa</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Quilleco.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>940</v>
+        <v>26700</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>04/06/1999</t>
+          <t>23/03/2001</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3741&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Quilleco</t>
+          <t>Loteo con Cambio de Uso de Suelo de los Predios Adyacentes Lote A y Lote B Santa Filomena</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Ilustre Municipalidad de Quilleco.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>640</v>
+        <v>940</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>22/01/1999</t>
+          <t>04/06/1999</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Áridos El Pedregal</t>
+          <t>Planta de Tratamiento de Aguas Servidas de Quilleco</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Inge-Aridos del Sur Ltda.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>540</v>
+        <v>640</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>28/10/1998</t>
+          <t>22/01/1999</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,12 +2536,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Quilleco</t>
+          <t>Extracción Mecanizada de Áridos El Pedregal</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Inge-Aridos del Sur Ltda.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>79600</v>
+        <v>540</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>09/10/1998</t>
+          <t>28/10/1998</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1782&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,12 +2584,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión Central Peuchén - Central Mampil-S/E Rucue</t>
+          <t>Central Hidroeléctrica Quilleco</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Duqueco SpA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3650</v>
+        <v>79600</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>29/04/1998</t>
+          <t>09/10/1998</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1193&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1782&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Camping Llano Blanco</t>
+          <t>Sistema de Transmisión Central Peuchén - Central Mampil-S/E Rucue</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Córdova y Cía Ltda.</t>
+          <t>Duqueco SpA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>180</v>
+        <v>3650</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>09/01/1998</t>
+          <t>29/04/1998</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=255&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1193&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,43 +2680,91 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>Camping Llano Blanco</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Octava</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Córdova y Cía Ltda.</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>180</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>09/01/1998</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=255&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Quilleco</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
           <t>Pangue Línea de Alta Tensión 2 x 220 Kv Santa Bárbara Trupán</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Octava</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Octava</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>TRANSELEC S.A...</t>
         </is>
       </c>
-      <c r="F49" t="n">
+      <c r="F50" t="n">
         <v>5500</v>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>01/06/1995</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=995&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>Quilleco</t>
         </is>

--- a/data/Quilleco.xlsx
+++ b/data/Quilleco.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/01/2023</t>
+          <t>20/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Quilleco.xlsx
+++ b/data/Quilleco.xlsx
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica de Melo</t>
+          <t>Central Hidroeléctrica de Caliboro</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8475</v>
+        <v>4810</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -980,12 +980,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8337291&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8337340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica de Caliboro</t>
+          <t>Central Hidroeléctrica de Melo</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4810</v>
+        <v>8475</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1028,12 +1028,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8337340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8337291&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">

--- a/data/Quilleco.xlsx
+++ b/data/Quilleco.xlsx
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica de Caliboro</t>
+          <t>Central Hidroeléctrica de Melo</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4810</v>
+        <v>8475</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -980,12 +980,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8337340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8337291&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica de Melo</t>
+          <t>Central Hidroeléctrica de Caliboro</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>8475</v>
+        <v>4810</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1028,12 +1028,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8337291&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8337340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">

--- a/data/Quilleco.xlsx
+++ b/data/Quilleco.xlsx
@@ -2407,7 +2407,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F50" t="n">

--- a/data/Quilleco.xlsx
+++ b/data/Quilleco.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
